--- a/data/trans_dic/P64D$bicicleta_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.03041185981651848</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.004445791925742968</v>
+        <v>0.004445791925742969</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01824929219729776</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01556415403759769</v>
+        <v>0.01619016611670888</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01029223897089874</v>
+        <v>0.01040150846440286</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05320316851495008</v>
+        <v>0.05733071817590989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01442258501793238</v>
+        <v>0.01703125320939488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03066726069910986</v>
+        <v>0.03082041018201954</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01762464738685782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01730313614695592</v>
+        <v>0.01730313614695591</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00567429810679755</v>
+        <v>0.005749792895032212</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006082817541939053</v>
+        <v>0.006893116139081187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009012583411788363</v>
+        <v>0.008027223539302682</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04698633687643172</v>
+        <v>0.04654639164780416</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03713969840609155</v>
+        <v>0.03718940917246835</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0343257010163311</v>
+        <v>0.03474861917134173</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006801824241079826</v>
+        <v>0.004527215982469809</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007745672836341745</v>
+        <v>0.007263203322117076</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05630363502646712</v>
+        <v>0.05948662123070399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0529896780172673</v>
+        <v>0.05849237416371585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04984809926769922</v>
+        <v>0.0479916129742447</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.00947331537457358</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006836339738974483</v>
+        <v>0.006836339738974484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.008326174669687698</v>
+        <v>0.0083261746696877</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003591168098839818</v>
+        <v>0.003443586155081948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00184646764747565</v>
+        <v>0.001846426177203463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004157420323262466</v>
+        <v>0.003815115783003815</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02306926749666046</v>
+        <v>0.0201714933374513</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01891861296613362</v>
+        <v>0.01801887750909721</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01559206023771057</v>
+        <v>0.01518506849279253</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006950044167210798</v>
+        <v>0.006909698863534549</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002298155172180022</v>
+        <v>0.002301718426509628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006487344849588601</v>
+        <v>0.006176113906468148</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08262545815364328</v>
+        <v>0.0887948402236392</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02440508439462078</v>
+        <v>0.02165623998270929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04787272381939115</v>
+        <v>0.04909815361370005</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01354014985417138</v>
+        <v>0.01337149840329878</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005216537572168706</v>
+        <v>0.005320793025350438</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01061914616479965</v>
+        <v>0.0106721954395684</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03177914155295317</v>
+        <v>0.03125471733710036</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01395456066079143</v>
+        <v>0.01428178228969474</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.021756548927098</v>
+        <v>0.02173472388855118</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5798</v>
+        <v>6031</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7212</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19819</v>
+        <v>21357</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4734</v>
+        <v>5590</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21490</v>
+        <v>21597</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1802</v>
+        <v>1826</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1649</v>
+        <v>1869</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5306</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14923</v>
+        <v>14783</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10069</v>
+        <v>10082</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20208</v>
+        <v>20457</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1827</v>
+        <v>1216</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2713</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15123</v>
+        <v>15978</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4329</v>
+        <v>4778</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17461</v>
+        <v>16811</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2211</v>
+        <v>2120</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>875</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4531</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14204</v>
+        <v>12420</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8969</v>
+        <v>8542</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16992</v>
+        <v>16548</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2128</v>
+        <v>2116</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3978</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25297</v>
+        <v>27186</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7491</v>
+        <v>6648</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29352</v>
+        <v>30103</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25463</v>
+        <v>25146</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7627</v>
+        <v>7779</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>35496</v>
+        <v>35673</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>59763</v>
+        <v>58777</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>20402</v>
+        <v>20881</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72724</v>
+        <v>72651</v>
       </c>
     </row>
     <row r="28">
